--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80538.27817769865</v>
+        <v>15259889.23043166</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80538.27817769865</v>
+        <v>15259889.23043166</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>255498.6291504544</v>
+        <v>30247265.5872046</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>255498.6291504544</v>
+        <v>30247265.5872046</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1490186848.41245</v>
+        <v>26228750.5697993</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18326.63707328861</v>
+        <v>744160.1555474231</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35051.91535630119</v>
+        <v>1286922.519661097</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51936.30566703485</v>
+        <v>1829684.883774771</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68553.82322666545</v>
+        <v>2372222.209513766</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85171.61309068547</v>
+        <v>2914813.723826261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101789.4029547055</v>
+        <v>3457405.238138755</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118399.3138189702</v>
+        <v>4007658.664902018</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>134995.6481364212</v>
+        <v>4555829.006122084</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>151813.7586434433</v>
+        <v>4797997.089400646</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>169178.3923121995</v>
+        <v>5123412.901777188</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186543.0259809556</v>
+        <v>5448828.714153732</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203907.6596497118</v>
+        <v>5774244.526530274</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>221272.2933184682</v>
+        <v>6099660.338906817</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>238654.8933083566</v>
+        <v>6421676.70728336</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>256028.715322056</v>
+        <v>6739940.072978079</v>
       </c>
     </row>
   </sheetData>
